--- a/exemples/cryptoUniswapPolygon.xlsx
+++ b/exemples/cryptoUniswapPolygon.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">USDT</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc2132d05d31c914a87c6611c10748aeb04b58e8f</t>
+    <t xml:space="preserve">0x3c499c542cef5e3811e1192ce70d8cc03d5c3359</t>
   </si>
   <si>
     <t xml:space="preserve">VAL dollars</t>
@@ -220,56 +220,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,10 +464,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="A5:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,8 +545,8 @@
       <c r="C2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
+      <c r="D2" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -549,58 +557,58 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="8" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>999</v>
-      </c>
-      <c r="J2" s="7" t="n">
+        <v>9999</v>
+      </c>
+      <c r="J2" s="9" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>999</v>
-      </c>
-      <c r="K2" s="6" t="n">
+        <v>9999</v>
+      </c>
+      <c r="K2" s="8" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>1198.8</v>
-      </c>
-      <c r="L2" s="7" t="n">
+        <v>11998.8</v>
+      </c>
+      <c r="L2" s="9" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-010</v>
-      </c>
-      <c r="M2" s="8" t="n">
+        <v>1E-013</v>
+      </c>
+      <c r="M2" s="10" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="N2" s="11" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>1E-010</v>
-      </c>
-      <c r="C4" s="11" t="n">
-        <v>45971</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>1E-013</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>45972</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
@@ -608,7 +616,7 @@
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -618,13 +626,6 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoUniswapPolygon.xlsx
+++ b/exemples/cryptoUniswapPolygon.xlsx
@@ -119,7 +119,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -137,9 +137,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
@@ -397,382 +394,467 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.53" customWidth="1" style="15" min="1" max="1"/>
-    <col width="20.58" customWidth="1" style="15" min="2" max="2"/>
-    <col width="22.12" customWidth="1" style="15" min="3" max="3"/>
-    <col width="12.24" customWidth="1" style="15" min="4" max="4"/>
-    <col width="11.26" customWidth="1" style="15" min="5" max="5"/>
-    <col width="10.57" customWidth="1" style="15" min="6" max="6"/>
-    <col width="8.76" customWidth="1" style="15" min="7" max="7"/>
-    <col width="13.75" customWidth="1" style="15" min="8" max="8"/>
-    <col width="11.53" customWidth="1" style="15" min="9" max="9"/>
-    <col width="9.18" customWidth="1" style="15" min="10" max="10"/>
-    <col width="11.53" customWidth="1" style="15" min="11" max="11"/>
-    <col width="11.26" customWidth="1" style="15" min="12" max="12"/>
-    <col width="6.96" customWidth="1" style="15" min="13" max="13"/>
-    <col width="18.36" customWidth="1" style="15" min="14" max="14"/>
-    <col width="11.53" customWidth="1" style="15" min="15" max="17"/>
-    <col width="19.61" customWidth="1" style="15" min="18" max="18"/>
-    <col width="11.53" customWidth="1" style="15" min="19" max="16384"/>
+    <col width="11.53" customWidth="1" style="14" min="1" max="1"/>
+    <col width="20.58" customWidth="1" style="14" min="2" max="2"/>
+    <col width="22.12" customWidth="1" style="14" min="3" max="3"/>
+    <col width="12.24" customWidth="1" style="14" min="4" max="4"/>
+    <col width="11.26" customWidth="1" style="14" min="5" max="5"/>
+    <col width="10.57" customWidth="1" style="14" min="6" max="6"/>
+    <col width="8.76" customWidth="1" style="14" min="7" max="7"/>
+    <col width="13.75" customWidth="1" style="14" min="8" max="8"/>
+    <col width="11.53" customWidth="1" style="14" min="9" max="9"/>
+    <col width="9.18" customWidth="1" style="14" min="10" max="10"/>
+    <col width="11.53" customWidth="1" style="14" min="11" max="11"/>
+    <col width="11.26" customWidth="1" style="14" min="12" max="12"/>
+    <col width="6.96" customWidth="1" style="14" min="13" max="13"/>
+    <col width="18.36" customWidth="1" style="14" min="14" max="14"/>
+    <col width="11.53" customWidth="1" style="14" min="15" max="17"/>
+    <col width="19.61" customWidth="1" style="14" min="18" max="18"/>
+    <col width="11.53" customWidth="1" style="14" min="19" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="16">
-      <c r="A1" s="17" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="15">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>nom</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>adress</t>
         </is>
       </c>
-      <c r="C1" s="17" t="inlineStr">
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>poucent que je gagnerai</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>combien de dollars j’ajoute a chaque achat</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>reseau (base,polygon,bnb)</t>
         </is>
       </c>
-      <c r="F1" s="17" t="inlineStr">
+      <c r="F1" s="16" t="inlineStr">
         <is>
           <t>symbol</t>
         </is>
       </c>
-      <c r="G1" s="17" t="inlineStr">
+      <c r="G1" s="16" t="inlineStr">
         <is>
           <t>stable coin de revente</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="H1" s="16" t="inlineStr">
         <is>
           <t>adress stable</t>
         </is>
       </c>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="I1" s="16" t="inlineStr">
         <is>
           <t>Mon prix mini</t>
         </is>
       </c>
-      <c r="J1" s="17" t="inlineStr">
+      <c r="J1" s="16" t="inlineStr">
         <is>
           <t>moyenne pondérée</t>
         </is>
       </c>
-      <c r="K1" s="17" t="inlineStr">
+      <c r="K1" s="16" t="inlineStr">
         <is>
           <t>revendre a</t>
         </is>
       </c>
-      <c r="L1" s="17" t="inlineStr">
+      <c r="L1" s="16" t="inlineStr">
         <is>
           <t>total acheté</t>
         </is>
       </c>
-      <c r="M1" s="17" t="inlineStr">
+      <c r="M1" s="16" t="inlineStr">
         <is>
           <t>nb lignes occupées</t>
         </is>
       </c>
-      <c r="N1" s="18" t="inlineStr">
+      <c r="N1" s="17" t="inlineStr">
         <is>
           <t>décimale token out</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="16">
-      <c r="A2" s="19" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="15">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>uniswap</t>
         </is>
       </c>
-      <c r="B2" s="20" t="inlineStr">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>0xb33EaAd8d922B1083446DC23f610c2567fB5180f</t>
         </is>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="19" t="n">
-        <v>1</v>
+      <c r="D2" s="18" t="n">
+        <v>3</v>
       </c>
-      <c r="E2" s="19" t="inlineStr">
+      <c r="E2" s="18" t="inlineStr">
         <is>
           <t>polygon</t>
         </is>
       </c>
-      <c r="F2" s="19" t="inlineStr">
+      <c r="F2" s="18" t="inlineStr">
         <is>
           <t>UNIUSDT</t>
         </is>
       </c>
-      <c r="G2" s="19" t="inlineStr">
+      <c r="G2" s="18" t="inlineStr">
         <is>
           <t>USDT</t>
         </is>
       </c>
-      <c r="H2" s="21" t="inlineStr">
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>0x3c499c542cef5e3811e1192ce70d8cc03d5c3359</t>
         </is>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="21">
         <f>MIN(A4:A9999)</f>
         <v/>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <f>SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
         <v/>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="21">
         <f>J2*(1+(C2/100))</f>
         <v/>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <f>SUM(B4:B9999)</f>
         <v/>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="23">
         <f>COUNTA(A1:A9999)</f>
         <v/>
       </c>
-      <c r="N2" s="25" t="n">
+      <c r="N2" s="24" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="16">
-      <c r="A3" s="26" t="inlineStr">
+    <row r="3" ht="12.75" customHeight="1" s="15">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>VAL dollars</t>
         </is>
       </c>
-      <c r="B3" s="26" t="inlineStr">
+      <c r="B3" s="25" t="inlineStr">
         <is>
           <t>combien achete</t>
         </is>
       </c>
-      <c r="C3" s="26" t="inlineStr">
+      <c r="C3" s="25" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D3" s="26" t="inlineStr">
+      <c r="D3" s="25" t="inlineStr">
         <is>
           <t>heure</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="16">
-      <c r="A4" s="20" t="n">
+    <row r="4" ht="12.75" customHeight="1" s="15">
+      <c r="A4" s="19" t="n">
         <v>9999</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="19" t="n">
         <v>1e-13</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="26" t="n">
         <v>45972</v>
       </c>
-      <c r="D4" s="28" t="n"/>
-      <c r="H4" s="15" t="inlineStr">
+      <c r="D4" s="27" t="n"/>
+      <c r="H4" s="14" t="inlineStr">
         <is>
           <t>&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars //// 0,00000000001 //// date du jour //// heure</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="16">
-      <c r="A5" s="20" t="n">
+    <row r="5" ht="12.75" customHeight="1" s="15">
+      <c r="A5" s="19" t="n">
         <v>8.452999999999999</v>
       </c>
-      <c r="B5" s="20" t="n">
+      <c r="B5" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="inlineStr">
+      <c r="C5" s="26" t="inlineStr">
         <is>
           <t>11/11/2025</t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>14:00:30</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="16">
-      <c r="A6" s="20" t="n">
+    <row r="6" ht="12.75" customHeight="1" s="15">
+      <c r="A6" s="19" t="n">
         <v>8.259</v>
       </c>
-      <c r="B6" s="20" t="n">
+      <c r="B6" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>12/11/2025</t>
         </is>
       </c>
-      <c r="D6" s="15" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>01:00:34</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="16">
-      <c r="A7" s="20" t="n">
+    <row r="7" ht="12.75" customHeight="1" s="15">
+      <c r="A7" s="19" t="n">
         <v>7.686</v>
       </c>
-      <c r="B7" s="20" t="n">
+      <c r="B7" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>12/11/2025</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
         <is>
           <t>19:00:33</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="16">
-      <c r="A8" s="15" t="n">
+    <row r="8" ht="12.75" customHeight="1" s="15">
+      <c r="A8" s="14" t="n">
         <v>7.572</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>13/11/2025</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>01:00:38</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="16">
-      <c r="A9" s="15" t="n">
+    <row r="9" ht="12.75" customHeight="1" s="15">
+      <c r="A9" s="14" t="n">
         <v>7.512</v>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>13/11/2025</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D9" s="14" t="inlineStr">
         <is>
           <t>21:31:39</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="16">
-      <c r="A10" s="15" t="n">
+    <row r="10" ht="12.75" customHeight="1" s="15">
+      <c r="A10" s="14" t="n">
         <v>7.502</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>14/11/2025</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>07:00:45</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="16">
-      <c r="A11" s="15" t="n">
+    <row r="11" ht="12.75" customHeight="1" s="15">
+      <c r="A11" s="14" t="n">
         <v>7.146</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>14/11/2025</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D11" s="14" t="inlineStr">
         <is>
           <t>14:01:11</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="16">
-      <c r="A12" s="15" t="n">
+    <row r="12" ht="12.75" customHeight="1" s="15">
+      <c r="A12" s="14" t="n">
         <v>7.11</v>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="inlineStr">
+      <c r="C12" s="14" t="inlineStr">
         <is>
           <t>14/11/2025</t>
         </is>
       </c>
-      <c r="D12" s="15" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>19:00:37</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="16">
-      <c r="A13" s="15" t="n">
+    <row r="13" ht="12.75" customHeight="1" s="15">
+      <c r="A13" s="14" t="n">
         <v>6.977</v>
       </c>
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="inlineStr">
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>15/11/2025</t>
         </is>
       </c>
-      <c r="D13" s="15" t="inlineStr">
+      <c r="D13" s="14" t="inlineStr">
         <is>
           <t>01:01:17</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" ht="12.75" customHeight="1" s="15">
+      <c r="A14" s="14" t="n">
         <v>6.952</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>19/11/2025</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="14" t="inlineStr">
         <is>
           <t>19:01:31</t>
         </is>
       </c>
     </row>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
+    <row r="15" ht="12.75" customHeight="1" s="15">
+      <c r="A15" s="14" t="n">
+        <v>6.655</v>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>19:01:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="15">
+      <c r="A16" s="14" t="n">
+        <v>6.501</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>20:14:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>6.269</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>14:01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>14:00:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6.036</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19:00:34</t>
+        </is>
+      </c>
+    </row>
     <row r="20"/>
     <row r="21"/>
     <row r="22"/>
@@ -10753,6 +10835,7 @@
     <row r="9997"/>
     <row r="9998"/>
     <row r="9999"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="15"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
